--- a/biology/Zoologie/Culbutant_belge/Culbutant_belge.xlsx
+++ b/biology/Zoologie/Culbutant_belge/Culbutant_belge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le culbutant belge (belgische tuimelaar) est une race de pigeon domestique originaire de Belgique, et plus précisément de la province d'Anvers[1]. Il est classé dans le groupe des pigeons de vol[2].
+Le culbutant belge (belgische tuimelaar) est une race de pigeon domestique originaire de Belgique, et plus précisément de la province d'Anvers. Il est classé dans le groupe des pigeons de vol.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un petit pigeon trapu à l'aspect solide. Sa poitrine est large et arrondie. Il a le dos légèrement incliné. La tête du culbutant belge et petite et arrondie au-dessus d'un cou bien large à la base. Le bec est moyen et clair.
-La queue est moyenne et les ailes bien collées au corps. Le plumage dense est reconnu en quatre couleurs : noir, rouge, jaune et dun[3].
-Son baguage est de 7 mm[4].
+La queue est moyenne et les ailes bien collées au corps. Le plumage dense est reconnu en quatre couleurs : noir, rouge, jaune et dun.
+Son baguage est de 7 mm.
 </t>
         </is>
       </c>
